--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -497,16 +497,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>110.9647903442383</v>
+        <v>119.2358093261719</v>
       </c>
       <c r="G2" t="n">
-        <v>43.15262222290039</v>
+        <v>46.55407333374023</v>
       </c>
       <c r="H2" t="n">
-        <v>-24.83132553100586</v>
+        <v>-22.3381462097168</v>
       </c>
       <c r="I2" t="n">
-        <v>67.44214630126953</v>
+        <v>74.76615905761719</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -497,16 +497,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>119.2358093261719</v>
+        <v>118.869255065918</v>
       </c>
       <c r="G2" t="n">
-        <v>46.55407333374023</v>
+        <v>46.21547317504883</v>
       </c>
       <c r="H2" t="n">
-        <v>-22.3381462097168</v>
+        <v>-23.00765609741211</v>
       </c>
       <c r="I2" t="n">
-        <v>74.76615905761719</v>
+        <v>76.71172332763672</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -497,16 +497,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>118.869255065918</v>
+        <v>113.6496353149414</v>
       </c>
       <c r="G2" t="n">
-        <v>46.21547317504883</v>
+        <v>47.31624603271484</v>
       </c>
       <c r="H2" t="n">
-        <v>-23.00765609741211</v>
+        <v>-3.476869344711304</v>
       </c>
       <c r="I2" t="n">
-        <v>76.71172332763672</v>
+        <v>72.99810028076172</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -497,16 +497,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>113.6496353149414</v>
+        <v>101.7831497192383</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31624603271484</v>
+        <v>32.14727783203125</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.476869344711304</v>
+        <v>-8.167805671691895</v>
       </c>
       <c r="I2" t="n">
-        <v>72.99810028076172</v>
+        <v>68.0823974609375</v>
       </c>
     </row>
   </sheetData>
